--- a/excel/assignments/Assignment4_Workbook.xlsx
+++ b/excel/assignments/Assignment4_Workbook.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7860"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7860" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="January" sheetId="5" r:id="rId1"/>
-    <sheet name="February" sheetId="6" r:id="rId2"/>
+    <sheet name="Januar" sheetId="5" r:id="rId1"/>
+    <sheet name="Februar" sheetId="6" r:id="rId2"/>
     <sheet name="Sheet4" sheetId="7" r:id="rId3"/>
-    <sheet name="March" sheetId="3" r:id="rId4"/>
+    <sheet name="März" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -138,15 +138,6 @@
     <t>x</t>
   </si>
   <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>Email Address</t>
-  </si>
-  <si>
     <t>heidi.lee@vestainsurance.com</t>
   </si>
   <si>
@@ -327,9 +318,6 @@
     <t>William</t>
   </si>
   <si>
-    <t>Webinar Training Log: March</t>
-  </si>
-  <si>
     <t>Swim</t>
   </si>
   <si>
@@ -567,9 +555,6 @@
     <t>RodneyTSwim@vestainsurance.net</t>
   </si>
   <si>
-    <t>Webinar Training Log: January</t>
-  </si>
-  <si>
     <t>Shirly</t>
   </si>
   <si>
@@ -807,10 +792,25 @@
     <t>DonaldNCook@vestainsurance.net</t>
   </si>
   <si>
-    <t>Webinar Training Log: February</t>
-  </si>
-  <si>
-    <t>Webinar Completed:</t>
+    <t>Webinar Anwesenheitsliste: Januar</t>
+  </si>
+  <si>
+    <t>Email Addresse</t>
+  </si>
+  <si>
+    <t>Vorname</t>
+  </si>
+  <si>
+    <t>Nachname</t>
+  </si>
+  <si>
+    <t>Webinar Bestanden:</t>
+  </si>
+  <si>
+    <t>Webinar Anwesenheitsliste: März</t>
+  </si>
+  <si>
+    <t>Webinar Anwesenheitsliste: Februar</t>
   </si>
 </sst>
 </file>
@@ -1201,8 +1201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1216,32 +1216,32 @@
   <sheetData>
     <row r="1" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>181</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>257</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>258</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>259</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>37</v>
@@ -1249,13 +1249,13 @@
     </row>
     <row r="4" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>37</v>
@@ -1263,13 +1263,13 @@
     </row>
     <row r="5" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>37</v>
@@ -1277,13 +1277,13 @@
     </row>
     <row r="6" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>37</v>
@@ -1291,13 +1291,13 @@
     </row>
     <row r="7" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>37</v>
@@ -1305,13 +1305,13 @@
     </row>
     <row r="8" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>37</v>
@@ -1319,13 +1319,13 @@
     </row>
     <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>37</v>
@@ -1333,13 +1333,13 @@
     </row>
     <row r="10" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>37</v>
@@ -1347,13 +1347,13 @@
     </row>
     <row r="11" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>37</v>
@@ -1361,13 +1361,13 @@
     </row>
     <row r="12" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>37</v>
@@ -1375,13 +1375,13 @@
     </row>
     <row r="13" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>37</v>
@@ -1389,13 +1389,13 @@
     </row>
     <row r="14" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>37</v>
@@ -1403,13 +1403,13 @@
     </row>
     <row r="15" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>37</v>
@@ -1417,10 +1417,10 @@
     </row>
     <row r="16" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>4</v>
@@ -1431,13 +1431,13 @@
     </row>
     <row r="17" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>37</v>
@@ -1445,13 +1445,13 @@
     </row>
     <row r="18" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>37</v>
@@ -1459,13 +1459,13 @@
     </row>
     <row r="19" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>37</v>
@@ -1473,13 +1473,13 @@
     </row>
     <row r="20" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>37</v>
@@ -1487,13 +1487,13 @@
     </row>
     <row r="21" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>37</v>
@@ -1501,13 +1501,13 @@
     </row>
     <row r="22" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>37</v>
@@ -1515,13 +1515,13 @@
     </row>
     <row r="23" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>37</v>
@@ -1529,13 +1529,13 @@
     </row>
     <row r="24" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>37</v>
@@ -1543,13 +1543,13 @@
     </row>
     <row r="25" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>37</v>
@@ -1557,13 +1557,13 @@
     </row>
     <row r="26" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>37</v>
@@ -1571,10 +1571,10 @@
     </row>
     <row r="27" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>25</v>
@@ -1585,13 +1585,13 @@
     </row>
     <row r="28" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>37</v>
@@ -1599,10 +1599,10 @@
     </row>
     <row r="29" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>25</v>
@@ -1613,13 +1613,13 @@
     </row>
     <row r="30" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>37</v>
@@ -1635,8 +1635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1650,32 +1650,32 @@
   <sheetData>
     <row r="1" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>257</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>258</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>259</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>37</v>
@@ -1683,13 +1683,13 @@
     </row>
     <row r="4" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>37</v>
@@ -1697,13 +1697,13 @@
     </row>
     <row r="5" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>37</v>
@@ -1711,13 +1711,13 @@
     </row>
     <row r="6" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>37</v>
@@ -1725,13 +1725,13 @@
     </row>
     <row r="7" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>37</v>
@@ -1739,13 +1739,13 @@
     </row>
     <row r="8" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>37</v>
@@ -1753,13 +1753,13 @@
     </row>
     <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>37</v>
@@ -1767,10 +1767,10 @@
     </row>
     <row r="10" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>26</v>
@@ -1781,13 +1781,13 @@
     </row>
     <row r="11" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>37</v>
@@ -1795,13 +1795,13 @@
     </row>
     <row r="12" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>37</v>
@@ -1809,13 +1809,13 @@
     </row>
     <row r="13" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>37</v>
@@ -1823,13 +1823,13 @@
     </row>
     <row r="14" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>37</v>
@@ -1837,13 +1837,13 @@
     </row>
     <row r="15" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>37</v>
@@ -1851,13 +1851,13 @@
     </row>
     <row r="16" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>37</v>
@@ -1865,13 +1865,13 @@
     </row>
     <row r="17" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>37</v>
@@ -1879,13 +1879,13 @@
     </row>
     <row r="18" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>37</v>
@@ -1893,13 +1893,13 @@
     </row>
     <row r="19" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>37</v>
@@ -1907,13 +1907,13 @@
     </row>
     <row r="20" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>37</v>
@@ -1921,13 +1921,13 @@
     </row>
     <row r="21" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>37</v>
@@ -1935,13 +1935,13 @@
     </row>
     <row r="22" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>37</v>
@@ -1949,13 +1949,13 @@
     </row>
     <row r="23" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>37</v>
@@ -1963,13 +1963,13 @@
     </row>
     <row r="24" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>37</v>
@@ -1977,13 +1977,13 @@
     </row>
     <row r="25" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>37</v>
@@ -1991,13 +1991,13 @@
     </row>
     <row r="26" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>37</v>
@@ -2005,13 +2005,13 @@
     </row>
     <row r="27" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>37</v>
@@ -2019,10 +2019,10 @@
     </row>
     <row r="28" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>4</v>
@@ -2033,13 +2033,13 @@
     </row>
     <row r="29" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>37</v>
@@ -2047,13 +2047,13 @@
     </row>
     <row r="30" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>37</v>
@@ -2082,7 +2082,7 @@
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2098,11 +2098,11 @@
   <sheetData>
     <row r="1" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>101</v>
+        <v>261</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
+      <c r="D1" s="2"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -2110,16 +2110,16 @@
     </row>
     <row r="2" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>257</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>258</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>260</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -2132,7 +2132,7 @@
     </row>
     <row r="3" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -2158,7 +2158,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>37</v>
@@ -2172,13 +2172,13 @@
     </row>
     <row r="5" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>37</v>
@@ -2192,13 +2192,13 @@
     </row>
     <row r="6" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>37</v>
@@ -2212,13 +2212,13 @@
     </row>
     <row r="7" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>37</v>
@@ -2232,13 +2232,13 @@
     </row>
     <row r="8" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>37</v>
@@ -2252,13 +2252,13 @@
     </row>
     <row r="9" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>37</v>
@@ -2272,13 +2272,13 @@
     </row>
     <row r="10" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>37</v>
@@ -2292,13 +2292,13 @@
     </row>
     <row r="11" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>37</v>
@@ -2312,13 +2312,13 @@
     </row>
     <row r="12" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>37</v>
@@ -2332,13 +2332,13 @@
     </row>
     <row r="13" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>37</v>
@@ -2352,13 +2352,13 @@
     </row>
     <row r="14" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>37</v>
@@ -2372,13 +2372,13 @@
     </row>
     <row r="15" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>37</v>
@@ -2392,13 +2392,13 @@
     </row>
     <row r="16" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>37</v>
@@ -2412,13 +2412,13 @@
     </row>
     <row r="17" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>37</v>
@@ -2432,13 +2432,13 @@
     </row>
     <row r="18" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>37</v>
@@ -2452,7 +2452,7 @@
     </row>
     <row r="19" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>18</v>
@@ -2472,13 +2472,13 @@
     </row>
     <row r="20" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>37</v>
@@ -2492,13 +2492,13 @@
     </row>
     <row r="21" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>37</v>
@@ -2512,13 +2512,13 @@
     </row>
     <row r="22" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>37</v>
@@ -2532,13 +2532,13 @@
     </row>
     <row r="23" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>37</v>
@@ -2552,13 +2552,13 @@
     </row>
     <row r="24" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>37</v>
@@ -2572,13 +2572,13 @@
     </row>
     <row r="25" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>37</v>
@@ -2592,13 +2592,13 @@
     </row>
     <row r="26" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>37</v>
@@ -2612,13 +2612,13 @@
     </row>
     <row r="27" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>37</v>
@@ -2632,13 +2632,13 @@
     </row>
     <row r="28" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>37</v>
@@ -2658,7 +2658,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>37</v>
@@ -2672,13 +2672,13 @@
     </row>
     <row r="30" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>37</v>
@@ -2692,13 +2692,13 @@
     </row>
     <row r="31" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>37</v>
@@ -2712,13 +2712,13 @@
     </row>
     <row r="32" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>37</v>
@@ -2732,13 +2732,13 @@
     </row>
     <row r="33" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>37</v>
@@ -2752,13 +2752,13 @@
     </row>
     <row r="34" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>37</v>
@@ -2772,13 +2772,13 @@
     </row>
     <row r="35" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>37</v>
